--- a/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/Full/afs_annual_financial_stability_reporting_solo.xlsx
+++ b/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/Full/afs_annual_financial_stability_reporting_solo.xlsx
@@ -5,51 +5,52 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\ExcelGenCmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\ExcelGenCmd — kopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8550"/>
   </bookViews>
   <sheets>
-    <sheet name="S.01.01.10.01" sheetId="6" r:id="rId1"/>
-    <sheet name="S.01.02.01.01" sheetId="5" r:id="rId2"/>
-    <sheet name="S.14.01.10.01" sheetId="4" r:id="rId3"/>
-    <sheet name="S.38.01.10.01" sheetId="3" r:id="rId4"/>
-    <sheet name="S.40.01.10.01" sheetId="2" r:id="rId5"/>
-    <sheet name="CRT_Filters" sheetId="1" state="hidden" r:id="rId6"/>
+    <sheet name="Table of contents" sheetId="2" r:id="rId1"/>
+    <sheet name="S.01.01.10.01" sheetId="7" r:id="rId2"/>
+    <sheet name="S.01.02.01.01" sheetId="6" r:id="rId3"/>
+    <sheet name="S.14.01.10.01" sheetId="5" r:id="rId4"/>
+    <sheet name="S.38.01.10.01" sheetId="4" r:id="rId5"/>
+    <sheet name="S.40.01.10.01" sheetId="3" r:id="rId6"/>
+    <sheet name="CRT_Filters" sheetId="1" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="S.01.01.10.01.TH" localSheetId="0">S.01.01.10.01!$B$1:$E$4</definedName>
-    <definedName name="S.01.01.10.01.V" localSheetId="0">S.01.01.10.01!$A$3</definedName>
-    <definedName name="S.01.02.01.01.TH" localSheetId="1">S.01.02.01.01!$B$1:$S$4</definedName>
-    <definedName name="S.01.02.01.01.V" localSheetId="1">S.01.02.01.01!$A$3</definedName>
-    <definedName name="S.14.01.10.01.TH" localSheetId="2">S.14.01.10.01!$B$1:$D$4</definedName>
-    <definedName name="S.14.01.10.01.V" localSheetId="2">S.14.01.10.01!$A$3</definedName>
-    <definedName name="S.38.01.10.01.TH" localSheetId="3">S.38.01.10.01!$B$1:$C$4</definedName>
-    <definedName name="S.38.01.10.01.V" localSheetId="3">S.38.01.10.01!$A$3</definedName>
-    <definedName name="S.40.01.10.01.TH" localSheetId="4">S.40.01.10.01!$B$1:$B$4</definedName>
-    <definedName name="S.40.01.10.01.V" localSheetId="4">S.40.01.10.01!$A$3</definedName>
-    <definedName name="S_01_01_10_01_S_01_02_01_Basic_Information_General">CRT_Filters!$ACB$1</definedName>
-    <definedName name="S_01_01_10_01_S_14_01_10_Life_obligations_analysis">CRT_Filters!$ACC$1:$ACC$3</definedName>
-    <definedName name="S_01_01_10_01_S_38_01_10_Duration_of_technical_provisions">CRT_Filters!$ACD$1:$ACD$2</definedName>
-    <definedName name="S_01_01_10_01_S_40_01_10_Profit_or_Loss_sharing">CRT_Filters!$ACE$1:$ACE$2</definedName>
-    <definedName name="S_01_02_01_01_Accounting_standards">CRT_Filters!$ABS$1:$ABS$2</definedName>
-    <definedName name="S_01_02_01_01_Country_of_authorisation">CRT_Filters!$ABO$1:$ABO$32</definedName>
-    <definedName name="S_01_02_01_01_Currency_used_for_reporting">CRT_Filters!$ABR$1:$ABR$184</definedName>
-    <definedName name="S_01_02_01_01_Initial_submission_or_re_submission">CRT_Filters!$ACA$1:$ACA$2</definedName>
-    <definedName name="S_01_02_01_01_Language_of_reporting">CRT_Filters!$ABP$1:$ABP$185</definedName>
-    <definedName name="S_01_02_01_01_Matching_adjustment">CRT_Filters!$ABW$1:$ABW$2</definedName>
-    <definedName name="S_01_02_01_01_Method_of_Calculation_of_the_SCR">CRT_Filters!$ABT$1:$ABT$3</definedName>
-    <definedName name="S_01_02_01_01_Regular_Ad_hoc_submission">CRT_Filters!$ABQ$1:$ABQ$2</definedName>
-    <definedName name="S_01_02_01_01_Ring_fenced_funds">CRT_Filters!$ABV$1:$ABV$2</definedName>
-    <definedName name="S_01_02_01_01_Transitional_measure_on_technical_provisions">CRT_Filters!$ABZ$1:$ABZ$2</definedName>
-    <definedName name="S_01_02_01_01_Transitional_measure_on_the_risk_free_interest_rate">CRT_Filters!$ABY$1:$ABY$2</definedName>
-    <definedName name="S_01_02_01_01_Type_of_undertaking">CRT_Filters!$ABN$1:$ABN$3</definedName>
-    <definedName name="S_01_02_01_01_Use_of_undertaking_specific_parameters">CRT_Filters!$ABU$1:$ABU$2</definedName>
-    <definedName name="S_01_02_01_01_Volatility_adjustment">CRT_Filters!$ABX$1:$ABX$2</definedName>
+    <definedName name="S.01.01.10.01.TH" localSheetId="1">S.01.01.10.01!$B$1:$E$4</definedName>
+    <definedName name="S.01.01.10.01.V" localSheetId="1">S.01.01.10.01!$A$3</definedName>
+    <definedName name="S.01.02.01.01.TH" localSheetId="2">S.01.02.01.01!$B$1:$S$4</definedName>
+    <definedName name="S.01.02.01.01.V" localSheetId="2">S.01.02.01.01!$A$3</definedName>
+    <definedName name="S.14.01.10.01.TH" localSheetId="3">S.14.01.10.01!$B$1:$D$4</definedName>
+    <definedName name="S.14.01.10.01.V" localSheetId="3">S.14.01.10.01!$A$3</definedName>
+    <definedName name="S.38.01.10.01.TH" localSheetId="4">S.38.01.10.01!$B$1:$C$4</definedName>
+    <definedName name="S.38.01.10.01.V" localSheetId="4">S.38.01.10.01!$A$3</definedName>
+    <definedName name="S.40.01.10.01.TH" localSheetId="5">S.40.01.10.01!$B$1:$B$4</definedName>
+    <definedName name="S.40.01.10.01.V" localSheetId="5">S.40.01.10.01!$A$3</definedName>
+    <definedName name="S_01_01_10_01_S_01_02_01_Basic_Information_General">CRT_Filters!$CCU$1</definedName>
+    <definedName name="S_01_01_10_01_S_14_01_10_Life_obligations_analysis">CRT_Filters!$CCV$1:$CCV$3</definedName>
+    <definedName name="S_01_01_10_01_S_38_01_10_Duration_of_technical_provisions">CRT_Filters!$CCW$1:$CCW$2</definedName>
+    <definedName name="S_01_01_10_01_S_40_01_10_Profit_or_Loss_sharing">CRT_Filters!$CCX$1:$CCX$2</definedName>
+    <definedName name="S_01_02_01_01_Accounting_standards">CRT_Filters!$CCL$1:$CCL$2</definedName>
+    <definedName name="S_01_02_01_01_Country_of_authorisation">CRT_Filters!$CCH$1:$CCH$32</definedName>
+    <definedName name="S_01_02_01_01_Currency_used_for_reporting">CRT_Filters!$CCK$1:$CCK$184</definedName>
+    <definedName name="S_01_02_01_01_Initial_submission_or_re_submission">CRT_Filters!$CCT$1:$CCT$2</definedName>
+    <definedName name="S_01_02_01_01_Language_of_reporting">CRT_Filters!$CCI$1:$CCI$185</definedName>
+    <definedName name="S_01_02_01_01_Matching_adjustment">CRT_Filters!$CCP$1:$CCP$2</definedName>
+    <definedName name="S_01_02_01_01_Method_of_Calculation_of_the_SCR">CRT_Filters!$CCM$1:$CCM$3</definedName>
+    <definedName name="S_01_02_01_01_Regular_Ad_hoc_submission">CRT_Filters!$CCJ$1:$CCJ$2</definedName>
+    <definedName name="S_01_02_01_01_Ring_fenced_funds">CRT_Filters!$CCO$1:$CCO$2</definedName>
+    <definedName name="S_01_02_01_01_Transitional_measure_on_technical_provisions">CRT_Filters!$CCS$1:$CCS$2</definedName>
+    <definedName name="S_01_02_01_01_Transitional_measure_on_the_risk_free_interest_rate">CRT_Filters!$CCR$1:$CCR$2</definedName>
+    <definedName name="S_01_02_01_01_Type_of_undertaking">CRT_Filters!$CCG$1:$CCG$3</definedName>
+    <definedName name="S_01_02_01_01_Use_of_undertaking_specific_parameters">CRT_Filters!$CCN$1:$CCN$2</definedName>
+    <definedName name="S_01_02_01_01_Volatility_adjustment">CRT_Filters!$CCQ$1:$CCQ$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +60,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="518">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Table Code</t>
+  </si>
+  <si>
+    <t>Table Label</t>
+  </si>
+  <si>
+    <t>S.01.01.10.01</t>
+  </si>
+  <si>
+    <t>Content of the submission</t>
+  </si>
+  <si>
+    <t>S.01.02.01.01</t>
+  </si>
+  <si>
+    <t>Basic Information - General</t>
+  </si>
+  <si>
+    <t>S.14.01.10.01</t>
+  </si>
+  <si>
+    <t>Information on homogenous risk group</t>
+  </si>
+  <si>
+    <t>S.38.01.10.01</t>
+  </si>
+  <si>
+    <t>Duration of technical provisions</t>
+  </si>
+  <si>
+    <t>S.40.01.10.01</t>
+  </si>
+  <si>
+    <t>Profit or Loss sharing</t>
+  </si>
   <si>
     <t>Column Header</t>
   </si>
@@ -73,43 +113,46 @@
     <t>R0010C0010</t>
   </si>
   <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>VER:2016.04.18</t>
+  </si>
+  <si>
+    <t>Duration of technical provisions, Life excluding unit-linked</t>
+  </si>
+  <si>
+    <t>Duration of technical provisions, Non-Life</t>
+  </si>
+  <si>
+    <t>R0020C0010</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Best Estimate</t>
+  </si>
+  <si>
+    <t>Annualised guaranteed rate (over average duration of guarantee)</t>
+  </si>
+  <si>
+    <t>HRG code</t>
+  </si>
+  <si>
+    <t>C0180</t>
+  </si>
+  <si>
+    <t>C0210</t>
+  </si>
+  <si>
+    <t>C0170</t>
+  </si>
+  <si>
+    <t>Monetary</t>
+  </si>
+  <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>VER:2016.02.01</t>
-  </si>
-  <si>
-    <t>Duration of technical provisions, Life excluding unit-linked</t>
-  </si>
-  <si>
-    <t>Duration of technical provisions, Non-Life</t>
-  </si>
-  <si>
-    <t>R0020C0010</t>
-  </si>
-  <si>
-    <t>Decimal</t>
-  </si>
-  <si>
-    <t>Best Estimate</t>
-  </si>
-  <si>
-    <t>Annualised guaranteed rate (over average duration of guarantee)</t>
-  </si>
-  <si>
-    <t>HRG code</t>
-  </si>
-  <si>
-    <t>C0180</t>
-  </si>
-  <si>
-    <t>C0210</t>
-  </si>
-  <si>
-    <t>C0170</t>
-  </si>
-  <si>
-    <t>Monetary</t>
   </si>
   <si>
     <t>Undertaking name</t>
@@ -1579,9 +1622,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,8 +1633,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1604,8 +1665,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1692,11 +1759,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1704,18 +1892,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1741,8 +1919,29 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1834,6 +2033,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1869,6 +2085,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2021,9 +2254,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" location="S.01.01.10.01!A1" tooltip="Click to navigate S.01.01.10.01" display="S.01.01.10.01"/>
+    <hyperlink ref="C5" location="S.01.02.01.01!A1" tooltip="Click to navigate S.01.02.01.01" display="S.01.02.01.01"/>
+    <hyperlink ref="C6" location="S.14.01.10.01!A1" tooltip="Click to navigate S.14.01.10.01" display="S.14.01.10.01"/>
+    <hyperlink ref="C7" location="S.38.01.10.01!A1" tooltip="Click to navigate S.38.01.10.01" display="S.38.01.10.01"/>
+    <hyperlink ref="C8" location="S.40.01.10.01!A1" tooltip="Click to navigate S.40.01.10.01" display="S.40.01.10.01"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2031,15 +2363,15 @@
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="4"/>
+    <col min="2" max="2" width="15.7109375" style="15"/>
     <col min="3" max="4" width="15.7109375" style="1"/>
-    <col min="5" max="5" width="15.7109375" style="14"/>
+    <col min="5" max="5" width="15.7109375" style="12"/>
     <col min="6" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2048,55 +2380,55 @@
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="E5" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2120,7 +2452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -2132,17 +2464,17 @@
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="4"/>
+    <col min="2" max="2" width="15.7109375" style="15"/>
     <col min="3" max="6" width="15.7109375" style="1"/>
-    <col min="7" max="8" width="15.7109375" style="15"/>
+    <col min="7" max="8" width="15.7109375" style="13"/>
     <col min="9" max="18" width="15.7109375" style="1"/>
-    <col min="19" max="19" width="15.7109375" style="14"/>
+    <col min="19" max="19" width="15.7109375" style="12"/>
     <col min="20" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2165,181 +2497,181 @@
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="S5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="S5" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="17">
@@ -2399,7 +2731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2411,29 +2743,29 @@
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="12"/>
+    <col min="2" max="2" width="15.7109375" style="10"/>
     <col min="3" max="3" width="15.7109375" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="14"/>
+    <col min="4" max="4" width="15.7109375" style="12"/>
     <col min="5" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2441,32 +2773,32 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="D5" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2482,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2494,51 +2826,51 @@
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="8"/>
-    <col min="3" max="3" width="15.7109375" style="10"/>
+    <col min="2" max="2" width="15.7109375" style="6"/>
+    <col min="3" max="3" width="15.7109375" style="8"/>
     <col min="4" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2558,7 +2890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2567,1725 +2899,1729 @@
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="6"/>
+    <col min="2" max="2" width="15.7109375" style="4"/>
     <col min="3" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 A3">
       <formula1>""""""</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid data" error="Please enter only the decimal value" sqref="B5:B1048576">
+      <formula1>-7.92281625142643E+28</formula1>
+      <formula2>7.92281625142643E+28</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="ABN1:ACE185"/>
+  <dimension ref="CCG1:CCX185"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABN1" t="s">
-        <v>51</v>
-      </c>
-      <c r="ABO1" t="s">
-        <v>54</v>
-      </c>
-      <c r="ABP1" t="s">
+    <row r="1" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCG1" t="s">
+        <v>65</v>
+      </c>
+      <c r="CCH1" t="s">
+        <v>68</v>
+      </c>
+      <c r="CCI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CCJ1" t="s">
+        <v>285</v>
+      </c>
+      <c r="CCK1" t="s">
+        <v>287</v>
+      </c>
+      <c r="CCL1" t="s">
+        <v>471</v>
+      </c>
+      <c r="CCM1" t="s">
+        <v>473</v>
+      </c>
+      <c r="CCN1" t="s">
+        <v>476</v>
+      </c>
+      <c r="CCO1" t="s">
+        <v>478</v>
+      </c>
+      <c r="CCP1" t="s">
+        <v>480</v>
+      </c>
+      <c r="CCQ1" t="s">
+        <v>482</v>
+      </c>
+      <c r="CCR1" t="s">
+        <v>484</v>
+      </c>
+      <c r="CCS1" t="s">
+        <v>486</v>
+      </c>
+      <c r="CCT1" t="s">
+        <v>488</v>
+      </c>
+      <c r="CCU1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CCV1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CCW1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CCX1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCG2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CCH2" t="s">
+        <v>69</v>
+      </c>
+      <c r="CCI2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CCJ2" t="s">
+        <v>286</v>
+      </c>
+      <c r="CCK2" t="s">
+        <v>288</v>
+      </c>
+      <c r="CCL2" t="s">
+        <v>472</v>
+      </c>
+      <c r="CCM2" t="s">
+        <v>474</v>
+      </c>
+      <c r="CCN2" t="s">
+        <v>477</v>
+      </c>
+      <c r="CCO2" t="s">
+        <v>479</v>
+      </c>
+      <c r="CCP2" t="s">
+        <v>481</v>
+      </c>
+      <c r="CCQ2" t="s">
+        <v>483</v>
+      </c>
+      <c r="CCR2" t="s">
+        <v>485</v>
+      </c>
+      <c r="CCS2" t="s">
+        <v>487</v>
+      </c>
+      <c r="CCT2" t="s">
+        <v>489</v>
+      </c>
+      <c r="CCV2" t="s">
+        <v>513</v>
+      </c>
+      <c r="CCW2" t="s">
+        <v>514</v>
+      </c>
+      <c r="CCX2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCG3" t="s">
+        <v>67</v>
+      </c>
+      <c r="CCH3" t="s">
+        <v>70</v>
+      </c>
+      <c r="CCI3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CCK3" t="s">
+        <v>289</v>
+      </c>
+      <c r="CCM3" t="s">
+        <v>475</v>
+      </c>
+      <c r="CCV3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CCI4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CCK4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH5" t="s">
+        <v>72</v>
+      </c>
+      <c r="CCI5" t="s">
+        <v>104</v>
+      </c>
+      <c r="CCK5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CCI6" t="s">
+        <v>105</v>
+      </c>
+      <c r="CCK6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CCI7" t="s">
+        <v>106</v>
+      </c>
+      <c r="CCK7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CCI8" t="s">
+        <v>107</v>
+      </c>
+      <c r="CCK8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="CCI9" t="s">
+        <v>108</v>
+      </c>
+      <c r="CCK9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH10" t="s">
+        <v>77</v>
+      </c>
+      <c r="CCI10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CCK10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH11" t="s">
+        <v>78</v>
+      </c>
+      <c r="CCI11" t="s">
+        <v>110</v>
+      </c>
+      <c r="CCK11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH12" t="s">
+        <v>79</v>
+      </c>
+      <c r="CCI12" t="s">
+        <v>111</v>
+      </c>
+      <c r="CCK12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CCI13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CCK13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH14" t="s">
+        <v>81</v>
+      </c>
+      <c r="CCI14" t="s">
+        <v>113</v>
+      </c>
+      <c r="CCK14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH15" t="s">
+        <v>82</v>
+      </c>
+      <c r="CCI15" t="s">
+        <v>114</v>
+      </c>
+      <c r="CCK15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="2113:2130" x14ac:dyDescent="0.25">
+      <c r="CCH16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CCI16" t="s">
+        <v>115</v>
+      </c>
+      <c r="CCK16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CCI17" t="s">
+        <v>116</v>
+      </c>
+      <c r="CCK17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH18" t="s">
+        <v>85</v>
+      </c>
+      <c r="CCI18" t="s">
+        <v>117</v>
+      </c>
+      <c r="CCK18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH19" t="s">
         <v>86</v>
       </c>
-      <c r="ABQ1" t="s">
+      <c r="CCI19" t="s">
+        <v>118</v>
+      </c>
+      <c r="CCK19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH20" t="s">
+        <v>87</v>
+      </c>
+      <c r="CCI20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CCK20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH21" t="s">
+        <v>88</v>
+      </c>
+      <c r="CCI21" t="s">
+        <v>120</v>
+      </c>
+      <c r="CCK21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CCI22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CCK22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH23" t="s">
+        <v>90</v>
+      </c>
+      <c r="CCI23" t="s">
+        <v>122</v>
+      </c>
+      <c r="CCK23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH24" t="s">
+        <v>91</v>
+      </c>
+      <c r="CCI24" t="s">
+        <v>123</v>
+      </c>
+      <c r="CCK24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH25" t="s">
+        <v>92</v>
+      </c>
+      <c r="CCI25" t="s">
+        <v>124</v>
+      </c>
+      <c r="CCK25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH26" t="s">
+        <v>93</v>
+      </c>
+      <c r="CCI26" t="s">
+        <v>125</v>
+      </c>
+      <c r="CCK26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH27" t="s">
+        <v>94</v>
+      </c>
+      <c r="CCI27" t="s">
+        <v>126</v>
+      </c>
+      <c r="CCK27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH28" t="s">
+        <v>95</v>
+      </c>
+      <c r="CCI28" t="s">
+        <v>127</v>
+      </c>
+      <c r="CCK28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH29" t="s">
+        <v>96</v>
+      </c>
+      <c r="CCI29" t="s">
+        <v>128</v>
+      </c>
+      <c r="CCK29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH30" t="s">
+        <v>97</v>
+      </c>
+      <c r="CCI30" t="s">
+        <v>129</v>
+      </c>
+      <c r="CCK30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH31" t="s">
+        <v>98</v>
+      </c>
+      <c r="CCI31" t="s">
+        <v>130</v>
+      </c>
+      <c r="CCK31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="2114:2117" x14ac:dyDescent="0.25">
+      <c r="CCH32" t="s">
+        <v>99</v>
+      </c>
+      <c r="CCI32" t="s">
+        <v>131</v>
+      </c>
+      <c r="CCK32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI33" t="s">
+        <v>132</v>
+      </c>
+      <c r="CCK33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI34" t="s">
+        <v>133</v>
+      </c>
+      <c r="CCK34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI35" t="s">
+        <v>134</v>
+      </c>
+      <c r="CCK35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI36" t="s">
+        <v>135</v>
+      </c>
+      <c r="CCK36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI37" t="s">
+        <v>136</v>
+      </c>
+      <c r="CCK37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI38" t="s">
+        <v>137</v>
+      </c>
+      <c r="CCK38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI39" t="s">
+        <v>138</v>
+      </c>
+      <c r="CCK39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI40" t="s">
+        <v>139</v>
+      </c>
+      <c r="CCK40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI41" t="s">
+        <v>140</v>
+      </c>
+      <c r="CCK41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI42" t="s">
+        <v>141</v>
+      </c>
+      <c r="CCK42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI43" t="s">
+        <v>142</v>
+      </c>
+      <c r="CCK43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI44" t="s">
+        <v>143</v>
+      </c>
+      <c r="CCK44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI45" t="s">
+        <v>144</v>
+      </c>
+      <c r="CCK45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI46" t="s">
+        <v>145</v>
+      </c>
+      <c r="CCK46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI47" t="s">
+        <v>146</v>
+      </c>
+      <c r="CCK47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI48" t="s">
+        <v>147</v>
+      </c>
+      <c r="CCK48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI49" t="s">
+        <v>148</v>
+      </c>
+      <c r="CCK49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI50" t="s">
+        <v>149</v>
+      </c>
+      <c r="CCK50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI51" t="s">
+        <v>150</v>
+      </c>
+      <c r="CCK51" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI52" t="s">
+        <v>151</v>
+      </c>
+      <c r="CCK52" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI53" t="s">
+        <v>152</v>
+      </c>
+      <c r="CCK53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI54" t="s">
+        <v>153</v>
+      </c>
+      <c r="CCK54" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI55" t="s">
+        <v>154</v>
+      </c>
+      <c r="CCK55" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI56" t="s">
+        <v>155</v>
+      </c>
+      <c r="CCK56" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI57" t="s">
+        <v>156</v>
+      </c>
+      <c r="CCK57" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI58" t="s">
+        <v>157</v>
+      </c>
+      <c r="CCK58" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI59" t="s">
+        <v>158</v>
+      </c>
+      <c r="CCK59" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI60" t="s">
+        <v>159</v>
+      </c>
+      <c r="CCK60" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI61" t="s">
+        <v>160</v>
+      </c>
+      <c r="CCK61" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI62" t="s">
+        <v>161</v>
+      </c>
+      <c r="CCK62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI63" t="s">
+        <v>162</v>
+      </c>
+      <c r="CCK63" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI64" t="s">
+        <v>163</v>
+      </c>
+      <c r="CCK64" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI65" t="s">
+        <v>164</v>
+      </c>
+      <c r="CCK65" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI66" t="s">
+        <v>165</v>
+      </c>
+      <c r="CCK66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI67" t="s">
+        <v>166</v>
+      </c>
+      <c r="CCK67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI68" t="s">
+        <v>167</v>
+      </c>
+      <c r="CCK68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI69" t="s">
+        <v>168</v>
+      </c>
+      <c r="CCK69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI70" t="s">
+        <v>169</v>
+      </c>
+      <c r="CCK70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI71" t="s">
+        <v>170</v>
+      </c>
+      <c r="CCK71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI72" t="s">
+        <v>171</v>
+      </c>
+      <c r="CCK72" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI73" t="s">
+        <v>172</v>
+      </c>
+      <c r="CCK73" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI74" t="s">
+        <v>173</v>
+      </c>
+      <c r="CCK74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI75" t="s">
+        <v>174</v>
+      </c>
+      <c r="CCK75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI76" t="s">
+        <v>175</v>
+      </c>
+      <c r="CCK76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI77" t="s">
+        <v>176</v>
+      </c>
+      <c r="CCK77" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI78" t="s">
+        <v>177</v>
+      </c>
+      <c r="CCK78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI79" t="s">
+        <v>178</v>
+      </c>
+      <c r="CCK79" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI80" t="s">
+        <v>179</v>
+      </c>
+      <c r="CCK80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI81" t="s">
+        <v>180</v>
+      </c>
+      <c r="CCK81" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI82" t="s">
+        <v>181</v>
+      </c>
+      <c r="CCK82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI83" t="s">
+        <v>182</v>
+      </c>
+      <c r="CCK83" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI84" t="s">
+        <v>183</v>
+      </c>
+      <c r="CCK84" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI85" t="s">
+        <v>184</v>
+      </c>
+      <c r="CCK85" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI86" t="s">
+        <v>185</v>
+      </c>
+      <c r="CCK86" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="87" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI87" t="s">
+        <v>186</v>
+      </c>
+      <c r="CCK87" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI88" t="s">
+        <v>187</v>
+      </c>
+      <c r="CCK88" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI89" t="s">
+        <v>188</v>
+      </c>
+      <c r="CCK89" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI90" t="s">
+        <v>189</v>
+      </c>
+      <c r="CCK90" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI91" t="s">
+        <v>190</v>
+      </c>
+      <c r="CCK91" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI92" t="s">
+        <v>191</v>
+      </c>
+      <c r="CCK92" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="93" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI93" t="s">
+        <v>192</v>
+      </c>
+      <c r="CCK93" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI94" t="s">
+        <v>193</v>
+      </c>
+      <c r="CCK94" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI95" t="s">
+        <v>194</v>
+      </c>
+      <c r="CCK95" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI96" t="s">
+        <v>195</v>
+      </c>
+      <c r="CCK96" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI97" t="s">
+        <v>196</v>
+      </c>
+      <c r="CCK97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI98" t="s">
+        <v>197</v>
+      </c>
+      <c r="CCK98" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI99" t="s">
+        <v>198</v>
+      </c>
+      <c r="CCK99" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI100" t="s">
+        <v>199</v>
+      </c>
+      <c r="CCK100" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI101" t="s">
+        <v>200</v>
+      </c>
+      <c r="CCK101" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI102" t="s">
+        <v>201</v>
+      </c>
+      <c r="CCK102" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI103" t="s">
+        <v>202</v>
+      </c>
+      <c r="CCK103" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI104" t="s">
+        <v>203</v>
+      </c>
+      <c r="CCK104" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="105" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI105" t="s">
+        <v>204</v>
+      </c>
+      <c r="CCK105" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="106" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI106" t="s">
+        <v>205</v>
+      </c>
+      <c r="CCK106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI107" t="s">
+        <v>206</v>
+      </c>
+      <c r="CCK107" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="108" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI108" t="s">
+        <v>207</v>
+      </c>
+      <c r="CCK108" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI109" t="s">
+        <v>208</v>
+      </c>
+      <c r="CCK109" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI110" t="s">
+        <v>209</v>
+      </c>
+      <c r="CCK110" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="111" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI111" t="s">
+        <v>210</v>
+      </c>
+      <c r="CCK111" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI112" t="s">
+        <v>211</v>
+      </c>
+      <c r="CCK112" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="113" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI113" t="s">
+        <v>212</v>
+      </c>
+      <c r="CCK113" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI114" t="s">
+        <v>213</v>
+      </c>
+      <c r="CCK114" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI115" t="s">
+        <v>214</v>
+      </c>
+      <c r="CCK115" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="116" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI116" t="s">
+        <v>215</v>
+      </c>
+      <c r="CCK116" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI117" t="s">
+        <v>216</v>
+      </c>
+      <c r="CCK117" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="118" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI118" t="s">
+        <v>217</v>
+      </c>
+      <c r="CCK118" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="119" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI119" t="s">
+        <v>218</v>
+      </c>
+      <c r="CCK119" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="120" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI120" t="s">
+        <v>219</v>
+      </c>
+      <c r="CCK120" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="121" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI121" t="s">
+        <v>220</v>
+      </c>
+      <c r="CCK121" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI122" t="s">
+        <v>221</v>
+      </c>
+      <c r="CCK122" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI123" t="s">
+        <v>222</v>
+      </c>
+      <c r="CCK123" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="124" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI124" t="s">
+        <v>223</v>
+      </c>
+      <c r="CCK124" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="125" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI125" t="s">
+        <v>224</v>
+      </c>
+      <c r="CCK125" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="126" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI126" t="s">
+        <v>225</v>
+      </c>
+      <c r="CCK126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI127" t="s">
+        <v>226</v>
+      </c>
+      <c r="CCK127" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="128" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI128" t="s">
+        <v>227</v>
+      </c>
+      <c r="CCK128" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI129" t="s">
+        <v>228</v>
+      </c>
+      <c r="CCK129" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="130" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI130" t="s">
+        <v>229</v>
+      </c>
+      <c r="CCK130" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="131" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI131" t="s">
+        <v>230</v>
+      </c>
+      <c r="CCK131" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="132" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI132" t="s">
+        <v>231</v>
+      </c>
+      <c r="CCK132" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="133" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI133" t="s">
+        <v>232</v>
+      </c>
+      <c r="CCK133" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="134" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI134" t="s">
+        <v>233</v>
+      </c>
+      <c r="CCK134" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI135" t="s">
+        <v>234</v>
+      </c>
+      <c r="CCK135" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI136" t="s">
+        <v>235</v>
+      </c>
+      <c r="CCK136" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="137" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI137" t="s">
+        <v>236</v>
+      </c>
+      <c r="CCK137" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="138" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI138" t="s">
+        <v>237</v>
+      </c>
+      <c r="CCK138" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="139" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI139" t="s">
+        <v>238</v>
+      </c>
+      <c r="CCK139" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="140" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI140" t="s">
+        <v>239</v>
+      </c>
+      <c r="CCK140" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI141" t="s">
+        <v>240</v>
+      </c>
+      <c r="CCK141" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="142" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI142" t="s">
+        <v>241</v>
+      </c>
+      <c r="CCK142" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="143" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI143" t="s">
+        <v>242</v>
+      </c>
+      <c r="CCK143" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="144" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI144" t="s">
+        <v>243</v>
+      </c>
+      <c r="CCK144" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI145" t="s">
+        <v>244</v>
+      </c>
+      <c r="CCK145" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI146" t="s">
+        <v>245</v>
+      </c>
+      <c r="CCK146" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="147" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI147" t="s">
+        <v>246</v>
+      </c>
+      <c r="CCK147" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="148" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI148" t="s">
+        <v>247</v>
+      </c>
+      <c r="CCK148" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="149" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI149" t="s">
+        <v>248</v>
+      </c>
+      <c r="CCK149" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="150" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI150" t="s">
+        <v>249</v>
+      </c>
+      <c r="CCK150" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="151" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI151" t="s">
+        <v>250</v>
+      </c>
+      <c r="CCK151" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="152" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI152" t="s">
+        <v>251</v>
+      </c>
+      <c r="CCK152" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="153" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI153" t="s">
+        <v>252</v>
+      </c>
+      <c r="CCK153" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI154" t="s">
+        <v>253</v>
+      </c>
+      <c r="CCK154" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="155" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI155" t="s">
+        <v>254</v>
+      </c>
+      <c r="CCK155" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="156" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI156" t="s">
+        <v>255</v>
+      </c>
+      <c r="CCK156" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="157" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI157" t="s">
+        <v>256</v>
+      </c>
+      <c r="CCK157" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="158" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI158" t="s">
+        <v>257</v>
+      </c>
+      <c r="CCK158" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="159" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI159" t="s">
+        <v>258</v>
+      </c>
+      <c r="CCK159" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="160" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI160" t="s">
+        <v>259</v>
+      </c>
+      <c r="CCK160" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="161" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI161" t="s">
+        <v>260</v>
+      </c>
+      <c r="CCK161" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="162" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI162" t="s">
+        <v>261</v>
+      </c>
+      <c r="CCK162" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI163" t="s">
+        <v>262</v>
+      </c>
+      <c r="CCK163" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="164" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI164" t="s">
+        <v>263</v>
+      </c>
+      <c r="CCK164" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI165" t="s">
+        <v>264</v>
+      </c>
+      <c r="CCK165" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI166" t="s">
+        <v>265</v>
+      </c>
+      <c r="CCK166" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI167" t="s">
+        <v>266</v>
+      </c>
+      <c r="CCK167" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="168" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI168" t="s">
+        <v>267</v>
+      </c>
+      <c r="CCK168" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="169" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI169" t="s">
+        <v>268</v>
+      </c>
+      <c r="CCK169" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="170" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI170" t="s">
+        <v>269</v>
+      </c>
+      <c r="CCK170" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="171" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI171" t="s">
+        <v>270</v>
+      </c>
+      <c r="CCK171" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI172" t="s">
         <v>271</v>
       </c>
-      <c r="ABR1" t="s">
+      <c r="CCK172" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="173" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI173" t="s">
+        <v>272</v>
+      </c>
+      <c r="CCK173" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="174" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI174" t="s">
         <v>273</v>
       </c>
-      <c r="ABS1" t="s">
-        <v>457</v>
-      </c>
-      <c r="ABT1" t="s">
-        <v>459</v>
-      </c>
-      <c r="ABU1" t="s">
+      <c r="CCK174" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="175" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI175" t="s">
+        <v>274</v>
+      </c>
+      <c r="CCK175" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="176" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI176" t="s">
+        <v>275</v>
+      </c>
+      <c r="CCK176" t="s">
         <v>462</v>
       </c>
-      <c r="ABV1" t="s">
+    </row>
+    <row r="177" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI177" t="s">
+        <v>276</v>
+      </c>
+      <c r="CCK177" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="178" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI178" t="s">
+        <v>277</v>
+      </c>
+      <c r="CCK178" t="s">
         <v>464</v>
       </c>
-      <c r="ABW1" t="s">
+    </row>
+    <row r="179" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI179" t="s">
+        <v>278</v>
+      </c>
+      <c r="CCK179" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI180" t="s">
+        <v>279</v>
+      </c>
+      <c r="CCK180" t="s">
         <v>466</v>
       </c>
-      <c r="ABX1" t="s">
+    </row>
+    <row r="181" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI181" t="s">
+        <v>280</v>
+      </c>
+      <c r="CCK181" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="182" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI182" t="s">
+        <v>281</v>
+      </c>
+      <c r="CCK182" t="s">
         <v>468</v>
       </c>
-      <c r="ABY1" t="s">
+    </row>
+    <row r="183" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI183" t="s">
+        <v>282</v>
+      </c>
+      <c r="CCK183" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="184" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI184" t="s">
+        <v>283</v>
+      </c>
+      <c r="CCK184" t="s">
         <v>470</v>
       </c>
-      <c r="ABZ1" t="s">
-        <v>472</v>
-      </c>
-      <c r="ACA1" t="s">
-        <v>474</v>
-      </c>
-      <c r="ACB1" t="s">
-        <v>498</v>
-      </c>
-      <c r="ACC1" t="s">
-        <v>498</v>
-      </c>
-      <c r="ACD1" t="s">
-        <v>498</v>
-      </c>
-      <c r="ACE1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABN2" t="s">
-        <v>52</v>
-      </c>
-      <c r="ABO2" t="s">
-        <v>55</v>
-      </c>
-      <c r="ABP2" t="s">
-        <v>87</v>
-      </c>
-      <c r="ABQ2" t="s">
-        <v>272</v>
-      </c>
-      <c r="ABR2" t="s">
-        <v>274</v>
-      </c>
-      <c r="ABS2" t="s">
-        <v>458</v>
-      </c>
-      <c r="ABT2" t="s">
-        <v>460</v>
-      </c>
-      <c r="ABU2" t="s">
-        <v>463</v>
-      </c>
-      <c r="ABV2" t="s">
-        <v>465</v>
-      </c>
-      <c r="ABW2" t="s">
-        <v>467</v>
-      </c>
-      <c r="ABX2" t="s">
-        <v>469</v>
-      </c>
-      <c r="ABY2" t="s">
-        <v>471</v>
-      </c>
-      <c r="ABZ2" t="s">
-        <v>473</v>
-      </c>
-      <c r="ACA2" t="s">
-        <v>475</v>
-      </c>
-      <c r="ACC2" t="s">
-        <v>499</v>
-      </c>
-      <c r="ACD2" t="s">
-        <v>500</v>
-      </c>
-      <c r="ACE2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABN3" t="s">
-        <v>53</v>
-      </c>
-      <c r="ABO3" t="s">
-        <v>56</v>
-      </c>
-      <c r="ABP3" t="s">
-        <v>88</v>
-      </c>
-      <c r="ABR3" t="s">
-        <v>275</v>
-      </c>
-      <c r="ABT3" t="s">
-        <v>461</v>
-      </c>
-      <c r="ACC3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO4" t="s">
-        <v>57</v>
-      </c>
-      <c r="ABP4" t="s">
-        <v>89</v>
-      </c>
-      <c r="ABR4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO5" t="s">
-        <v>58</v>
-      </c>
-      <c r="ABP5" t="s">
-        <v>90</v>
-      </c>
-      <c r="ABR5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO6" t="s">
-        <v>59</v>
-      </c>
-      <c r="ABP6" t="s">
-        <v>91</v>
-      </c>
-      <c r="ABR6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO7" t="s">
-        <v>60</v>
-      </c>
-      <c r="ABP7" t="s">
-        <v>92</v>
-      </c>
-      <c r="ABR7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO8" t="s">
-        <v>61</v>
-      </c>
-      <c r="ABP8" t="s">
-        <v>93</v>
-      </c>
-      <c r="ABR8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO9" t="s">
-        <v>62</v>
-      </c>
-      <c r="ABP9" t="s">
-        <v>94</v>
-      </c>
-      <c r="ABR9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO10" t="s">
-        <v>63</v>
-      </c>
-      <c r="ABP10" t="s">
-        <v>95</v>
-      </c>
-      <c r="ABR10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO11" t="s">
-        <v>64</v>
-      </c>
-      <c r="ABP11" t="s">
-        <v>96</v>
-      </c>
-      <c r="ABR11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO12" t="s">
-        <v>65</v>
-      </c>
-      <c r="ABP12" t="s">
-        <v>97</v>
-      </c>
-      <c r="ABR12" t="s">
+    </row>
+    <row r="185" spans="2115:2117" x14ac:dyDescent="0.25">
+      <c r="CCI185" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO13" t="s">
-        <v>66</v>
-      </c>
-      <c r="ABP13" t="s">
-        <v>98</v>
-      </c>
-      <c r="ABR13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO14" t="s">
-        <v>67</v>
-      </c>
-      <c r="ABP14" t="s">
-        <v>99</v>
-      </c>
-      <c r="ABR14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO15" t="s">
-        <v>68</v>
-      </c>
-      <c r="ABP15" t="s">
-        <v>100</v>
-      </c>
-      <c r="ABR15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="742:759" x14ac:dyDescent="0.25">
-      <c r="ABO16" t="s">
-        <v>69</v>
-      </c>
-      <c r="ABP16" t="s">
-        <v>101</v>
-      </c>
-      <c r="ABR16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO17" t="s">
-        <v>70</v>
-      </c>
-      <c r="ABP17" t="s">
-        <v>102</v>
-      </c>
-      <c r="ABR17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO18" t="s">
-        <v>71</v>
-      </c>
-      <c r="ABP18" t="s">
-        <v>103</v>
-      </c>
-      <c r="ABR18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO19" t="s">
-        <v>72</v>
-      </c>
-      <c r="ABP19" t="s">
-        <v>104</v>
-      </c>
-      <c r="ABR19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO20" t="s">
-        <v>73</v>
-      </c>
-      <c r="ABP20" t="s">
-        <v>105</v>
-      </c>
-      <c r="ABR20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO21" t="s">
-        <v>74</v>
-      </c>
-      <c r="ABP21" t="s">
-        <v>106</v>
-      </c>
-      <c r="ABR21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO22" t="s">
-        <v>75</v>
-      </c>
-      <c r="ABP22" t="s">
-        <v>107</v>
-      </c>
-      <c r="ABR22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO23" t="s">
-        <v>76</v>
-      </c>
-      <c r="ABP23" t="s">
-        <v>108</v>
-      </c>
-      <c r="ABR23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO24" t="s">
-        <v>77</v>
-      </c>
-      <c r="ABP24" t="s">
-        <v>109</v>
-      </c>
-      <c r="ABR24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO25" t="s">
-        <v>78</v>
-      </c>
-      <c r="ABP25" t="s">
-        <v>110</v>
-      </c>
-      <c r="ABR25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO26" t="s">
-        <v>79</v>
-      </c>
-      <c r="ABP26" t="s">
-        <v>111</v>
-      </c>
-      <c r="ABR26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO27" t="s">
-        <v>80</v>
-      </c>
-      <c r="ABP27" t="s">
-        <v>112</v>
-      </c>
-      <c r="ABR27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO28" t="s">
-        <v>81</v>
-      </c>
-      <c r="ABP28" t="s">
-        <v>113</v>
-      </c>
-      <c r="ABR28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO29" t="s">
-        <v>82</v>
-      </c>
-      <c r="ABP29" t="s">
-        <v>114</v>
-      </c>
-      <c r="ABR29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO30" t="s">
-        <v>83</v>
-      </c>
-      <c r="ABP30" t="s">
-        <v>115</v>
-      </c>
-      <c r="ABR30" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO31" t="s">
-        <v>84</v>
-      </c>
-      <c r="ABP31" t="s">
-        <v>116</v>
-      </c>
-      <c r="ABR31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32" spans="743:746" x14ac:dyDescent="0.25">
-      <c r="ABO32" t="s">
-        <v>85</v>
-      </c>
-      <c r="ABP32" t="s">
-        <v>117</v>
-      </c>
-      <c r="ABR32" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP33" t="s">
-        <v>118</v>
-      </c>
-      <c r="ABR33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="34" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP34" t="s">
-        <v>119</v>
-      </c>
-      <c r="ABR34" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP35" t="s">
-        <v>120</v>
-      </c>
-      <c r="ABR35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP36" t="s">
-        <v>121</v>
-      </c>
-      <c r="ABR36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="37" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP37" t="s">
-        <v>122</v>
-      </c>
-      <c r="ABR37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP38" t="s">
-        <v>123</v>
-      </c>
-      <c r="ABR38" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP39" t="s">
-        <v>124</v>
-      </c>
-      <c r="ABR39" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP40" t="s">
-        <v>125</v>
-      </c>
-      <c r="ABR40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP41" t="s">
-        <v>126</v>
-      </c>
-      <c r="ABR41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP42" t="s">
-        <v>127</v>
-      </c>
-      <c r="ABR42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP43" t="s">
-        <v>128</v>
-      </c>
-      <c r="ABR43" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP44" t="s">
-        <v>129</v>
-      </c>
-      <c r="ABR44" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="45" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP45" t="s">
-        <v>130</v>
-      </c>
-      <c r="ABR45" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP46" t="s">
-        <v>131</v>
-      </c>
-      <c r="ABR46" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP47" t="s">
-        <v>132</v>
-      </c>
-      <c r="ABR47" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP48" t="s">
-        <v>133</v>
-      </c>
-      <c r="ABR48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP49" t="s">
-        <v>134</v>
-      </c>
-      <c r="ABR49" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP50" t="s">
-        <v>135</v>
-      </c>
-      <c r="ABR50" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP51" t="s">
-        <v>136</v>
-      </c>
-      <c r="ABR51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP52" t="s">
-        <v>137</v>
-      </c>
-      <c r="ABR52" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP53" t="s">
-        <v>138</v>
-      </c>
-      <c r="ABR53" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP54" t="s">
-        <v>139</v>
-      </c>
-      <c r="ABR54" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="55" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP55" t="s">
-        <v>140</v>
-      </c>
-      <c r="ABR55" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP56" t="s">
-        <v>141</v>
-      </c>
-      <c r="ABR56" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP57" t="s">
-        <v>142</v>
-      </c>
-      <c r="ABR57" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="58" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP58" t="s">
-        <v>143</v>
-      </c>
-      <c r="ABR58" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP59" t="s">
-        <v>144</v>
-      </c>
-      <c r="ABR59" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP60" t="s">
-        <v>145</v>
-      </c>
-      <c r="ABR60" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP61" t="s">
-        <v>146</v>
-      </c>
-      <c r="ABR61" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP62" t="s">
-        <v>147</v>
-      </c>
-      <c r="ABR62" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="63" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP63" t="s">
-        <v>148</v>
-      </c>
-      <c r="ABR63" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="64" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP64" t="s">
-        <v>149</v>
-      </c>
-      <c r="ABR64" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="65" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP65" t="s">
-        <v>150</v>
-      </c>
-      <c r="ABR65" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="66" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP66" t="s">
-        <v>151</v>
-      </c>
-      <c r="ABR66" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="67" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP67" t="s">
-        <v>152</v>
-      </c>
-      <c r="ABR67" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="68" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP68" t="s">
-        <v>153</v>
-      </c>
-      <c r="ABR68" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="69" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP69" t="s">
-        <v>154</v>
-      </c>
-      <c r="ABR69" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="70" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP70" t="s">
-        <v>155</v>
-      </c>
-      <c r="ABR70" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="71" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP71" t="s">
-        <v>156</v>
-      </c>
-      <c r="ABR71" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="72" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP72" t="s">
-        <v>157</v>
-      </c>
-      <c r="ABR72" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="73" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP73" t="s">
-        <v>158</v>
-      </c>
-      <c r="ABR73" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="74" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP74" t="s">
-        <v>159</v>
-      </c>
-      <c r="ABR74" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="75" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP75" t="s">
-        <v>160</v>
-      </c>
-      <c r="ABR75" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP76" t="s">
-        <v>161</v>
-      </c>
-      <c r="ABR76" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP77" t="s">
-        <v>162</v>
-      </c>
-      <c r="ABR77" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP78" t="s">
-        <v>163</v>
-      </c>
-      <c r="ABR78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP79" t="s">
-        <v>164</v>
-      </c>
-      <c r="ABR79" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP80" t="s">
-        <v>165</v>
-      </c>
-      <c r="ABR80" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="81" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP81" t="s">
-        <v>166</v>
-      </c>
-      <c r="ABR81" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="82" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP82" t="s">
-        <v>167</v>
-      </c>
-      <c r="ABR82" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="83" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP83" t="s">
-        <v>168</v>
-      </c>
-      <c r="ABR83" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="84" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP84" t="s">
-        <v>169</v>
-      </c>
-      <c r="ABR84" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="85" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP85" t="s">
-        <v>170</v>
-      </c>
-      <c r="ABR85" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="86" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP86" t="s">
-        <v>171</v>
-      </c>
-      <c r="ABR86" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="87" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP87" t="s">
-        <v>172</v>
-      </c>
-      <c r="ABR87" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="88" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP88" t="s">
-        <v>173</v>
-      </c>
-      <c r="ABR88" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="89" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP89" t="s">
-        <v>174</v>
-      </c>
-      <c r="ABR89" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="90" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP90" t="s">
-        <v>175</v>
-      </c>
-      <c r="ABR90" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="91" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP91" t="s">
-        <v>176</v>
-      </c>
-      <c r="ABR91" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="92" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP92" t="s">
-        <v>177</v>
-      </c>
-      <c r="ABR92" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="93" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP93" t="s">
-        <v>178</v>
-      </c>
-      <c r="ABR93" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="94" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP94" t="s">
-        <v>179</v>
-      </c>
-      <c r="ABR94" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="95" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP95" t="s">
-        <v>180</v>
-      </c>
-      <c r="ABR95" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="96" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP96" t="s">
-        <v>181</v>
-      </c>
-      <c r="ABR96" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="97" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP97" t="s">
-        <v>182</v>
-      </c>
-      <c r="ABR97" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="98" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP98" t="s">
-        <v>183</v>
-      </c>
-      <c r="ABR98" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP99" t="s">
-        <v>184</v>
-      </c>
-      <c r="ABR99" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="100" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP100" t="s">
-        <v>185</v>
-      </c>
-      <c r="ABR100" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="101" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP101" t="s">
-        <v>186</v>
-      </c>
-      <c r="ABR101" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="102" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP102" t="s">
-        <v>187</v>
-      </c>
-      <c r="ABR102" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="103" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP103" t="s">
-        <v>188</v>
-      </c>
-      <c r="ABR103" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="104" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP104" t="s">
-        <v>189</v>
-      </c>
-      <c r="ABR104" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="105" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP105" t="s">
-        <v>190</v>
-      </c>
-      <c r="ABR105" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP106" t="s">
-        <v>191</v>
-      </c>
-      <c r="ABR106" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="107" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP107" t="s">
-        <v>192</v>
-      </c>
-      <c r="ABR107" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="108" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP108" t="s">
-        <v>193</v>
-      </c>
-      <c r="ABR108" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="109" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP109" t="s">
-        <v>194</v>
-      </c>
-      <c r="ABR109" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="110" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP110" t="s">
-        <v>195</v>
-      </c>
-      <c r="ABR110" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="111" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP111" t="s">
-        <v>196</v>
-      </c>
-      <c r="ABR111" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="112" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP112" t="s">
-        <v>197</v>
-      </c>
-      <c r="ABR112" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="113" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP113" t="s">
-        <v>198</v>
-      </c>
-      <c r="ABR113" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="114" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP114" t="s">
-        <v>199</v>
-      </c>
-      <c r="ABR114" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="115" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP115" t="s">
-        <v>200</v>
-      </c>
-      <c r="ABR115" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="116" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP116" t="s">
-        <v>201</v>
-      </c>
-      <c r="ABR116" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="117" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP117" t="s">
-        <v>202</v>
-      </c>
-      <c r="ABR117" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="118" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP118" t="s">
-        <v>203</v>
-      </c>
-      <c r="ABR118" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="119" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP119" t="s">
-        <v>204</v>
-      </c>
-      <c r="ABR119" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="120" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP120" t="s">
-        <v>205</v>
-      </c>
-      <c r="ABR120" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="121" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP121" t="s">
-        <v>206</v>
-      </c>
-      <c r="ABR121" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="122" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP122" t="s">
-        <v>207</v>
-      </c>
-      <c r="ABR122" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP123" t="s">
-        <v>208</v>
-      </c>
-      <c r="ABR123" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="124" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP124" t="s">
-        <v>209</v>
-      </c>
-      <c r="ABR124" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="125" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP125" t="s">
-        <v>210</v>
-      </c>
-      <c r="ABR125" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="126" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP126" t="s">
-        <v>211</v>
-      </c>
-      <c r="ABR126" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="127" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP127" t="s">
-        <v>212</v>
-      </c>
-      <c r="ABR127" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="128" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP128" t="s">
-        <v>213</v>
-      </c>
-      <c r="ABR128" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="129" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP129" t="s">
-        <v>214</v>
-      </c>
-      <c r="ABR129" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="130" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP130" t="s">
-        <v>215</v>
-      </c>
-      <c r="ABR130" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="131" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP131" t="s">
-        <v>216</v>
-      </c>
-      <c r="ABR131" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="132" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP132" t="s">
-        <v>217</v>
-      </c>
-      <c r="ABR132" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="133" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP133" t="s">
-        <v>218</v>
-      </c>
-      <c r="ABR133" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="134" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP134" t="s">
-        <v>219</v>
-      </c>
-      <c r="ABR134" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="135" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP135" t="s">
-        <v>220</v>
-      </c>
-      <c r="ABR135" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="136" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP136" t="s">
-        <v>221</v>
-      </c>
-      <c r="ABR136" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="137" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP137" t="s">
-        <v>222</v>
-      </c>
-      <c r="ABR137" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="138" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP138" t="s">
-        <v>223</v>
-      </c>
-      <c r="ABR138" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="139" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP139" t="s">
-        <v>224</v>
-      </c>
-      <c r="ABR139" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="140" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP140" t="s">
-        <v>225</v>
-      </c>
-      <c r="ABR140" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP141" t="s">
-        <v>226</v>
-      </c>
-      <c r="ABR141" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="142" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP142" t="s">
-        <v>227</v>
-      </c>
-      <c r="ABR142" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="143" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP143" t="s">
-        <v>228</v>
-      </c>
-      <c r="ABR143" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="144" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP144" t="s">
-        <v>229</v>
-      </c>
-      <c r="ABR144" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="145" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP145" t="s">
-        <v>230</v>
-      </c>
-      <c r="ABR145" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="146" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP146" t="s">
-        <v>231</v>
-      </c>
-      <c r="ABR146" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="147" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP147" t="s">
-        <v>232</v>
-      </c>
-      <c r="ABR147" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="148" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP148" t="s">
-        <v>233</v>
-      </c>
-      <c r="ABR148" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="149" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP149" t="s">
-        <v>234</v>
-      </c>
-      <c r="ABR149" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="150" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP150" t="s">
-        <v>235</v>
-      </c>
-      <c r="ABR150" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="151" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP151" t="s">
-        <v>236</v>
-      </c>
-      <c r="ABR151" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="152" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP152" t="s">
-        <v>237</v>
-      </c>
-      <c r="ABR152" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="153" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP153" t="s">
-        <v>238</v>
-      </c>
-      <c r="ABR153" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="154" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP154" t="s">
-        <v>239</v>
-      </c>
-      <c r="ABR154" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="155" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP155" t="s">
-        <v>240</v>
-      </c>
-      <c r="ABR155" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="156" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP156" t="s">
-        <v>241</v>
-      </c>
-      <c r="ABR156" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="157" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP157" t="s">
-        <v>242</v>
-      </c>
-      <c r="ABR157" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="158" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP158" t="s">
-        <v>243</v>
-      </c>
-      <c r="ABR158" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="159" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP159" t="s">
-        <v>244</v>
-      </c>
-      <c r="ABR159" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="160" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP160" t="s">
-        <v>245</v>
-      </c>
-      <c r="ABR160" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="161" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP161" t="s">
-        <v>246</v>
-      </c>
-      <c r="ABR161" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="162" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP162" t="s">
-        <v>247</v>
-      </c>
-      <c r="ABR162" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="163" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP163" t="s">
-        <v>248</v>
-      </c>
-      <c r="ABR163" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="164" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP164" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABR164" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="165" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP165" t="s">
-        <v>250</v>
-      </c>
-      <c r="ABR165" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="166" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP166" t="s">
-        <v>251</v>
-      </c>
-      <c r="ABR166" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="167" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP167" t="s">
-        <v>252</v>
-      </c>
-      <c r="ABR167" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="168" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP168" t="s">
-        <v>253</v>
-      </c>
-      <c r="ABR168" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="169" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP169" t="s">
-        <v>254</v>
-      </c>
-      <c r="ABR169" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="170" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP170" t="s">
-        <v>255</v>
-      </c>
-      <c r="ABR170" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="171" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP171" t="s">
-        <v>256</v>
-      </c>
-      <c r="ABR171" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="172" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP172" t="s">
-        <v>257</v>
-      </c>
-      <c r="ABR172" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="173" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP173" t="s">
-        <v>258</v>
-      </c>
-      <c r="ABR173" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="174" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP174" t="s">
-        <v>259</v>
-      </c>
-      <c r="ABR174" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="175" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP175" t="s">
-        <v>260</v>
-      </c>
-      <c r="ABR175" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="176" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP176" t="s">
-        <v>261</v>
-      </c>
-      <c r="ABR176" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="177" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP177" t="s">
-        <v>262</v>
-      </c>
-      <c r="ABR177" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="178" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP178" t="s">
-        <v>263</v>
-      </c>
-      <c r="ABR178" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="179" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP179" t="s">
-        <v>264</v>
-      </c>
-      <c r="ABR179" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="180" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP180" t="s">
-        <v>265</v>
-      </c>
-      <c r="ABR180" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="181" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP181" t="s">
-        <v>266</v>
-      </c>
-      <c r="ABR181" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="182" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP182" t="s">
-        <v>267</v>
-      </c>
-      <c r="ABR182" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="183" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP183" t="s">
-        <v>268</v>
-      </c>
-      <c r="ABR183" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="184" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP184" t="s">
-        <v>269</v>
-      </c>
-      <c r="ABR184" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="185" spans="744:746" x14ac:dyDescent="0.25">
-      <c r="ABP185" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
